--- a/runs/seq_3_3.xlsx
+++ b/runs/seq_3_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanos\Documents\Work\Columbia Research Assistant Job\PsychoPy Experiments\Cocaine_Study_Stroop_Test\runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDB5D3E-61E2-4B0D-A3EA-45FC7C72393C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B906BBA5-2BE3-481B-B050-D4E346763F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0E0C1639-A99E-5E4D-A58D-E7ABD3DF6E69}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{0E0C1639-A99E-5E4D-A58D-E7ABD3DF6E69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,19 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="52">
-  <si>
-    <t>'5'</t>
-  </si>
-  <si>
-    <t>'4'</t>
-  </si>
-  <si>
-    <t>'3'</t>
-  </si>
-  <si>
-    <t>'2'</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="48">
   <si>
     <t>word</t>
   </si>
@@ -589,974 +577,974 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243482C2-BFC8-FC4B-AD34-F64B171C13C1}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6484375" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.34765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.84765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.84765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A2" t="s">
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A3" t="s">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A4" t="s">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>3</v>
+      <c r="D8" s="5">
+        <v>2</v>
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="D9" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="D10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="D11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>3</v>
+      <c r="D12" s="5">
+        <v>2</v>
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="D13" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="D14" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>3</v>
+      <c r="D15" s="5">
+        <v>2</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A17" t="s">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>3</v>
+      <c r="D21" s="7">
+        <v>2</v>
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>3</v>
+      <c r="D23" s="5">
+        <v>2</v>
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="D24" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>0</v>
+      <c r="D25" s="5">
+        <v>5</v>
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="D26" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" s="5">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>3</v>
+      <c r="D33" s="7">
+        <v>2</v>
       </c>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C36">
         <v>3</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="D36" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="D37" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="D38" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C39">
         <v>3</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="D39" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="D40" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="D41" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="D42" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43" s="5">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" s="5">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" s="5">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50" s="6">
+        <v>3</v>
+      </c>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>43</v>
       </c>
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43">
-        <v>4</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44">
-        <v>4</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A45" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A47" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47">
-        <v>3</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A48" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A50" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A51" t="s">
-        <v>47</v>
-      </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C51">
         <v>4</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="D51" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="D52" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>3</v>
+      <c r="D53" s="5">
+        <v>2</v>
       </c>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C55">
         <v>4</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>0</v>
+      <c r="D55" s="5">
+        <v>5</v>
       </c>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>23</v>
       </c>
-      <c r="B56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56">
-        <v>4</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A57" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57">
-        <v>3</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A58" t="s">
-        <v>27</v>
-      </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="D58" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C59">
         <v>4</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>0</v>
+      <c r="D59" s="5">
+        <v>5</v>
       </c>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C60">
         <v>4</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="D60" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="D61" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="D62" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C63">
         <v>4</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="D63" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="D64" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C65">
         <v>4</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="D65" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="D66" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>2</v>
+      <c r="D67" s="5">
+        <v>3</v>
       </c>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C68">
         <v>4</v>
       </c>
-      <c r="D68" s="6" t="s">
-        <v>0</v>
+      <c r="D68" s="6">
+        <v>5</v>
       </c>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>3</v>
+      <c r="D69" s="6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
